--- a/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
+++ b/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoDSDwSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/bldgs/eodsdwsp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6296C509-C403-0547-980A-2CA02B0D8A93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12090"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="24920" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="3" r:id="rId2"/>
     <sheet name="EoDSDwSP" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -89,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -138,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -150,6 +162,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,6 +257,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,21 +501,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="7">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,37 +526,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -518,20 +568,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,7 +595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -560,7 +610,7 @@
         <v>0.43949044585987279</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -575,12 +625,12 @@
         <v>0.37984496124031009</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>0.3</v>
       </c>
@@ -588,12 +638,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -602,7 +652,7 @@
         <v>1.4649681528662426</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -618,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -628,17 +678,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -647,7 +697,7 @@
         <v>1.4649681528662426</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -656,7 +706,7 @@
         <v>1.4649681528662426</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>

--- a/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
+++ b/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/bldgs/eodsdwsp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/eodsdwsp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6296C509-C403-0547-980A-2CA02B0D8A93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEC4E0-D3F9-A84A-8A8D-D824B8EEF77F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="24920" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
